--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2725699.106915043</v>
+        <v>2723200.855593833</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673425</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1370,19 +1370,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>311.723616015233</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1430,13 +1430,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.839011826286978</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,22 +1531,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124551</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1591,7 +1591,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y13" t="n">
         <v>171.6095167335022</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>275.9723987444492</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>23.93294867336092</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
         <v>247.6326277687279</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1743,7 +1743,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494259</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
         <v>120.2716844800353</v>
@@ -1771,16 +1771,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
         <v>49.37728379124555</v>
@@ -1813,25 +1813,25 @@
         <v>41.95701605145479</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>288.3310575773447</v>
       </c>
       <c r="C17" t="n">
-        <v>224.9230016973053</v>
+        <v>270.8701076848716</v>
       </c>
       <c r="D17" t="n">
         <v>260.2802575345471</v>
@@ -1856,7 +1856,7 @@
         <v>312.4732616555756</v>
       </c>
       <c r="G17" t="n">
-        <v>316.5189415673176</v>
+        <v>270.5718355797494</v>
       </c>
       <c r="H17" t="n">
         <v>200.2049803011846</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.78497770204</v>
+        <v>14.78497770203995</v>
       </c>
       <c r="T17" t="n">
         <v>109.5151860534843</v>
       </c>
       <c r="U17" t="n">
-        <v>156.5923878727662</v>
+        <v>156.5923878727661</v>
       </c>
       <c r="V17" t="n">
-        <v>233.3494743839991</v>
+        <v>233.349474383999</v>
       </c>
       <c r="W17" t="n">
-        <v>254.8381846312772</v>
+        <v>254.8381846312771</v>
       </c>
       <c r="X17" t="n">
         <v>275.3283165923332</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.42919609580146</v>
+        <v>85.42919609580142</v>
       </c>
       <c r="C19" t="n">
-        <v>72.844037012492</v>
+        <v>72.84403701249195</v>
       </c>
       <c r="D19" t="n">
-        <v>54.21268893207652</v>
+        <v>54.21268893207647</v>
       </c>
       <c r="E19" t="n">
-        <v>52.03117856043333</v>
+        <v>52.03117856043329</v>
       </c>
       <c r="F19" t="n">
-        <v>51.01826393679541</v>
+        <v>51.01826393679536</v>
       </c>
       <c r="G19" t="n">
-        <v>71.62302417289239</v>
+        <v>71.62302417289234</v>
       </c>
       <c r="H19" t="n">
-        <v>50.35223082818494</v>
+        <v>50.3522308281849</v>
       </c>
       <c r="I19" t="n">
-        <v>1.949636323702258</v>
+        <v>1.949636323702215</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.36624124530604</v>
+        <v>95.36624124530601</v>
       </c>
       <c r="T19" t="n">
         <v>125.1461651900333</v>
@@ -2068,7 +2068,7 @@
         <v>131.3068713029013</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.181869265959</v>
+        <v>124.1818692659589</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2081,13 @@
         <v>288.3310575773447</v>
       </c>
       <c r="C20" t="n">
-        <v>270.8701076848717</v>
+        <v>270.8701076848716</v>
       </c>
       <c r="D20" t="n">
         <v>260.2802575345471</v>
       </c>
       <c r="E20" t="n">
-        <v>241.580479998558</v>
+        <v>287.5275859861259</v>
       </c>
       <c r="F20" t="n">
         <v>312.4732616555756</v>
@@ -2096,7 +2096,7 @@
         <v>316.5189415673176</v>
       </c>
       <c r="H20" t="n">
-        <v>200.2049803011846</v>
+        <v>154.2578743136161</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.78497770204001</v>
+        <v>14.78497770203997</v>
       </c>
       <c r="T20" t="n">
         <v>109.5151860534843</v>
       </c>
       <c r="U20" t="n">
-        <v>156.5923878727662</v>
+        <v>156.5923878727661</v>
       </c>
       <c r="V20" t="n">
-        <v>233.3494743839991</v>
+        <v>233.349474383999</v>
       </c>
       <c r="W20" t="n">
-        <v>254.8381846312772</v>
+        <v>254.8381846312771</v>
       </c>
       <c r="X20" t="n">
         <v>275.3283165923332</v>
@@ -2175,7 +2175,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247745</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.42919609580146</v>
+        <v>85.42919609580142</v>
       </c>
       <c r="C22" t="n">
-        <v>72.844037012492</v>
+        <v>72.84403701249195</v>
       </c>
       <c r="D22" t="n">
-        <v>54.21268893207652</v>
+        <v>54.21268893207647</v>
       </c>
       <c r="E22" t="n">
-        <v>52.03117856043333</v>
+        <v>52.03117856043329</v>
       </c>
       <c r="F22" t="n">
-        <v>51.01826393679541</v>
+        <v>51.01826393679536</v>
       </c>
       <c r="G22" t="n">
-        <v>71.62302417289239</v>
+        <v>71.62302417289234</v>
       </c>
       <c r="H22" t="n">
-        <v>50.35223082818494</v>
+        <v>50.3522308281849</v>
       </c>
       <c r="I22" t="n">
-        <v>1.949636323702272</v>
+        <v>1.949636323702229</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.36624124530604</v>
+        <v>95.36624124530601</v>
       </c>
       <c r="T22" t="n">
         <v>125.1461651900333</v>
@@ -2305,7 +2305,7 @@
         <v>131.3068713029013</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.181869265959</v>
+        <v>124.1818692659589</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>288.3310575773447</v>
       </c>
       <c r="C23" t="n">
-        <v>270.8701076848717</v>
+        <v>270.8701076848716</v>
       </c>
       <c r="D23" t="n">
         <v>260.2802575345471</v>
@@ -2333,7 +2333,7 @@
         <v>316.5189415673176</v>
       </c>
       <c r="H23" t="n">
-        <v>200.2049803011846</v>
+        <v>154.2578743136168</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.78497770204001</v>
+        <v>14.78497770203997</v>
       </c>
       <c r="T23" t="n">
         <v>109.5151860534843</v>
       </c>
       <c r="U23" t="n">
-        <v>156.5923878727662</v>
+        <v>156.5923878727661</v>
       </c>
       <c r="V23" t="n">
-        <v>233.3494743839991</v>
+        <v>233.349474383999</v>
       </c>
       <c r="W23" t="n">
-        <v>254.8381846312772</v>
+        <v>254.8381846312771</v>
       </c>
       <c r="X23" t="n">
-        <v>229.3812106047659</v>
+        <v>275.3283165923332</v>
       </c>
       <c r="Y23" t="n">
         <v>291.8351545699177</v>
@@ -2412,7 +2412,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
         <v>18.81721868247745</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.42919609580146</v>
+        <v>85.42919609580142</v>
       </c>
       <c r="C25" t="n">
-        <v>72.844037012492</v>
+        <v>72.84403701249195</v>
       </c>
       <c r="D25" t="n">
-        <v>54.21268893207652</v>
+        <v>54.21268893207647</v>
       </c>
       <c r="E25" t="n">
-        <v>52.03117856043333</v>
+        <v>52.03117856043329</v>
       </c>
       <c r="F25" t="n">
-        <v>51.01826393679541</v>
+        <v>51.01826393679536</v>
       </c>
       <c r="G25" t="n">
-        <v>71.62302417289239</v>
+        <v>71.62302417289234</v>
       </c>
       <c r="H25" t="n">
-        <v>50.35223082818494</v>
+        <v>50.3522308281849</v>
       </c>
       <c r="I25" t="n">
-        <v>1.949636323702272</v>
+        <v>1.949636323702229</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.36624124530604</v>
+        <v>95.36624124530601</v>
       </c>
       <c r="T25" t="n">
         <v>125.1461651900333</v>
@@ -2542,7 +2542,7 @@
         <v>131.3068713029013</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.181869265959</v>
+        <v>124.1818692659589</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.3061941959373</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>317.8452443034643</v>
@@ -2564,13 +2564,13 @@
         <v>334.5027226047185</v>
       </c>
       <c r="F26" t="n">
-        <v>243.4804716492214</v>
+        <v>359.4483982741682</v>
       </c>
       <c r="G26" t="n">
         <v>363.4940781859102</v>
       </c>
       <c r="H26" t="n">
-        <v>247.1801169197772</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>61.76011432063258</v>
       </c>
       <c r="T26" t="n">
         <v>156.4903226720769</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>203.5675244913587</v>
       </c>
       <c r="V26" t="n">
-        <v>280.3246110025917</v>
+        <v>280.3246110025916</v>
       </c>
       <c r="W26" t="n">
         <v>301.8133212498698</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>322.3034532109258</v>
       </c>
       <c r="Y26" t="n">
-        <v>338.8102911885103</v>
+        <v>217.6975836563599</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2649,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I27" t="n">
         <v>18.81721868247745</v>
@@ -2682,7 +2682,7 @@
         <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.4043327143941</v>
+        <v>132.404332714394</v>
       </c>
       <c r="C28" t="n">
         <v>119.8191736310846</v>
@@ -2719,19 +2719,19 @@
         <v>101.1878255506691</v>
       </c>
       <c r="E28" t="n">
-        <v>99.00631517902593</v>
+        <v>99.0063151790259</v>
       </c>
       <c r="F28" t="n">
-        <v>97.99340055538801</v>
+        <v>97.99340055538798</v>
       </c>
       <c r="G28" t="n">
         <v>118.598160791485</v>
       </c>
       <c r="H28" t="n">
-        <v>97.32736744677754</v>
+        <v>97.32736744677752</v>
       </c>
       <c r="I28" t="n">
-        <v>48.92477294229487</v>
+        <v>48.92477294229484</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.50450520250411</v>
+        <v>41.50450520250408</v>
       </c>
       <c r="S28" t="n">
-        <v>142.3413778638987</v>
+        <v>142.3413778638986</v>
       </c>
       <c r="T28" t="n">
-        <v>172.121301808626</v>
+        <v>172.1213018086259</v>
       </c>
       <c r="U28" t="n">
         <v>238.7841907380696</v>
       </c>
       <c r="V28" t="n">
-        <v>204.7099958562848</v>
+        <v>204.7099958562847</v>
       </c>
       <c r="W28" t="n">
-        <v>239.0953508690478</v>
+        <v>239.0953508690477</v>
       </c>
       <c r="X28" t="n">
         <v>178.2820079214939</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.1570058845516</v>
+        <v>171.1570058845515</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.3061941959373</v>
+        <v>335.3061941959372</v>
       </c>
       <c r="C29" t="n">
         <v>317.8452443034643</v>
       </c>
       <c r="D29" t="n">
-        <v>307.2553941531397</v>
+        <v>307.2553941531396</v>
       </c>
       <c r="E29" t="n">
-        <v>89.2073478788015</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>359.4483982741681</v>
       </c>
       <c r="G29" t="n">
-        <v>363.4940781859102</v>
+        <v>241.5778990625418</v>
       </c>
       <c r="H29" t="n">
-        <v>247.1801169197772</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.76011432063255</v>
+        <v>61.76011432063252</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>156.4903226720768</v>
       </c>
       <c r="U29" t="n">
         <v>203.5675244913587</v>
@@ -2852,7 +2852,7 @@
         <v>280.3246110025916</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>301.8133212498697</v>
       </c>
       <c r="X29" t="n">
         <v>322.3034532109257</v>
@@ -2886,7 +2886,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247745</v>
@@ -2953,22 +2953,22 @@
         <v>119.8191736310845</v>
       </c>
       <c r="D31" t="n">
-        <v>101.1878255506691</v>
+        <v>101.187825550669</v>
       </c>
       <c r="E31" t="n">
-        <v>99.00631517902588</v>
+        <v>99.00631517902585</v>
       </c>
       <c r="F31" t="n">
-        <v>97.99340055538795</v>
+        <v>97.99340055538792</v>
       </c>
       <c r="G31" t="n">
         <v>118.5981607914849</v>
       </c>
       <c r="H31" t="n">
-        <v>97.32736744677749</v>
+        <v>97.32736744677746</v>
       </c>
       <c r="I31" t="n">
-        <v>48.92477294229482</v>
+        <v>48.92477294229479</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.50450520250405</v>
+        <v>41.50450520250402</v>
       </c>
       <c r="S31" t="n">
         <v>142.3413778638986</v>
@@ -3004,7 +3004,7 @@
         <v>172.1213018086259</v>
       </c>
       <c r="U31" t="n">
-        <v>238.7841907380696</v>
+        <v>238.7841907380695</v>
       </c>
       <c r="V31" t="n">
         <v>204.7099958562847</v>
@@ -3013,7 +3013,7 @@
         <v>239.0953508690477</v>
       </c>
       <c r="X31" t="n">
-        <v>178.2820079214939</v>
+        <v>178.2820079214938</v>
       </c>
       <c r="Y31" t="n">
         <v>171.1570058845515</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C32" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D32" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E32" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F32" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G32" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H32" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007076</v>
       </c>
       <c r="T32" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U32" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V32" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W32" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X32" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y32" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034764</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.1472599538323</v>
+        <v>82.1472599538322</v>
       </c>
       <c r="C34" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052274</v>
       </c>
       <c r="D34" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010726</v>
       </c>
       <c r="E34" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846408</v>
       </c>
       <c r="F34" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482615</v>
       </c>
       <c r="G34" t="n">
-        <v>68.34108803092323</v>
+        <v>68.34108803092313</v>
       </c>
       <c r="H34" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621569</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T34" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U34" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775077</v>
       </c>
       <c r="V34" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W34" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X34" t="n">
-        <v>128.0249351609322</v>
+        <v>128.024935160932</v>
       </c>
       <c r="Y34" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H35" t="n">
         <v>196.9230441592154</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007076</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279485</v>
@@ -3360,7 +3360,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I36" t="n">
         <v>18.81721868247745</v>
@@ -3393,7 +3393,7 @@
         <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383228</v>
+        <v>82.1472599538322</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052274</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010726</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846408</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482615</v>
       </c>
       <c r="G37" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092313</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621569</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775077</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>128.024935160932</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429034</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H38" t="n">
         <v>196.9230441592154</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007076</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279485</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247634</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383228</v>
+        <v>82.1472599538322</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052274</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010726</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846408</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482615</v>
       </c>
       <c r="G40" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092313</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621569</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775077</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>128.024935160932</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925794</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H41" t="n">
         <v>196.9230441592154</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007076</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279485</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383228</v>
+        <v>82.1472599538322</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052274</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010726</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846408</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482615</v>
       </c>
       <c r="G43" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092313</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621569</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775077</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>128.024935160932</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H44" t="n">
         <v>196.9230441592154</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007076</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279485</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383228</v>
+        <v>82.1472599538322</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052274</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010726</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846408</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482615</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092313</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621569</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775077</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>128.024935160932</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1696.959858232655</v>
+        <v>1627.383644777219</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232655</v>
+        <v>1305.870760784881</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>995.0546951262033</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>680.1823557168771</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G11" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T11" t="n">
-        <v>3167.077706941467</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U11" t="n">
-        <v>2960.996863163376</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2677.383608767879</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W11" t="n">
-        <v>2372.064586445838</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2046.048461132832</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="Y11" t="n">
-        <v>2036.110065348704</v>
+        <v>1966.533851893267</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,37 +5133,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5179,31 +5179,31 @@
         <v>637.979699825461</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611987</v>
+        <v>535.3126933611986</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268788</v>
+        <v>434.8492327268789</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770418</v>
+        <v>335.4089181770419</v>
       </c>
       <c r="G13" t="n">
-        <v>215.155714499834</v>
+        <v>215.1557144998342</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657653</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5215,16 +5215,16 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874611</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1364.208554989044</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="C14" t="n">
-        <v>1042.695670996706</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D14" t="n">
-        <v>1042.695670996706</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>704.3570513465347</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="F14" t="n">
-        <v>340.8207795050005</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G14" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810556</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T14" t="n">
-        <v>3167.077706941467</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U14" t="n">
-        <v>2960.996863163376</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V14" t="n">
-        <v>2677.383608767879</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W14" t="n">
-        <v>2372.064586445838</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X14" t="n">
-        <v>2046.048461132831</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y14" t="n">
-        <v>1703.358762105093</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C16" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
         <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5476,10 +5476,10 @@
         <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874611</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1684.621236373654</v>
+        <v>1684.621236373652</v>
       </c>
       <c r="C17" t="n">
-        <v>1457.426285164255</v>
+        <v>1411.015066994994</v>
       </c>
       <c r="D17" t="n">
-        <v>1194.516934119258</v>
+        <v>1148.105715949997</v>
       </c>
       <c r="E17" t="n">
-        <v>904.0850290827671</v>
+        <v>857.6738109135063</v>
       </c>
       <c r="F17" t="n">
-        <v>588.4554718549128</v>
+        <v>542.0442536856522</v>
       </c>
       <c r="G17" t="n">
-        <v>268.7393692616629</v>
+        <v>268.7393692616628</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3310.67150069802</v>
+        <v>3310.671500698018</v>
       </c>
       <c r="T17" t="n">
-        <v>3200.050100643995</v>
+        <v>3200.050100643994</v>
       </c>
       <c r="U17" t="n">
-        <v>3041.875971479585</v>
+        <v>3041.875971479583</v>
       </c>
       <c r="V17" t="n">
-        <v>2806.169431697768</v>
+        <v>2806.169431697766</v>
       </c>
       <c r="W17" t="n">
-        <v>2548.757123989407</v>
+        <v>2548.757123989405</v>
       </c>
       <c r="X17" t="n">
-        <v>2270.647713290081</v>
+        <v>2270.647713290079</v>
       </c>
       <c r="Y17" t="n">
-        <v>1975.864728876023</v>
+        <v>1975.86472887602</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228006</v>
@@ -5598,7 +5598,7 @@
         <v>398.4535849031475</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5622,16 +5622,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
         <v>1317.51949026613</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>424.1192475095337</v>
+        <v>424.1192475095335</v>
       </c>
       <c r="C19" t="n">
-        <v>350.5394121433802</v>
+        <v>350.53941214338</v>
       </c>
       <c r="D19" t="n">
-        <v>295.7791202927979</v>
+        <v>295.7791202927977</v>
       </c>
       <c r="E19" t="n">
-        <v>243.2223742721582</v>
+        <v>243.222374272158</v>
       </c>
       <c r="F19" t="n">
-        <v>191.6887743360012</v>
+        <v>191.688774336001</v>
       </c>
       <c r="G19" t="n">
-        <v>119.3422852724735</v>
+        <v>119.3422852724734</v>
       </c>
       <c r="H19" t="n">
-        <v>68.48144605208471</v>
+        <v>68.48144605208462</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7936262148974</v>
+        <v>129.6354881860079</v>
       </c>
       <c r="K19" t="n">
-        <v>363.5632367278422</v>
+        <v>321.4050986989528</v>
       </c>
       <c r="L19" t="n">
-        <v>612.731836895474</v>
+        <v>570.5736988665846</v>
       </c>
       <c r="M19" t="n">
-        <v>873.6230744399463</v>
+        <v>738.0061801657823</v>
       </c>
       <c r="N19" t="n">
-        <v>1096.23252968618</v>
+        <v>1002.773773440904</v>
       </c>
       <c r="O19" t="n">
-        <v>1234.150878904369</v>
+        <v>1234.150878904368</v>
       </c>
       <c r="P19" t="n">
-        <v>1426.560637902403</v>
+        <v>1426.560637902402</v>
       </c>
       <c r="Q19" t="n">
-        <v>1532.940161506218</v>
+        <v>1532.940161506217</v>
       </c>
       <c r="R19" t="n">
         <v>1538.356086608145</v>
       </c>
       <c r="S19" t="n">
-        <v>1442.026549996725</v>
+        <v>1442.026549996724</v>
       </c>
       <c r="T19" t="n">
-        <v>1315.616282128005</v>
+        <v>1315.616282128004</v>
       </c>
       <c r="U19" t="n">
-        <v>1121.869762815402</v>
+        <v>1121.869762815401</v>
       </c>
       <c r="V19" t="n">
-        <v>962.541622171268</v>
+        <v>962.5416221712676</v>
       </c>
       <c r="W19" t="n">
-        <v>768.4807996960608</v>
+        <v>768.4807996960603</v>
       </c>
       <c r="X19" t="n">
-        <v>635.8475963597969</v>
+        <v>635.8475963597964</v>
       </c>
       <c r="Y19" t="n">
-        <v>510.4113647780201</v>
+        <v>510.4113647780197</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1684.621236373653</v>
+        <v>1684.621236373652</v>
       </c>
       <c r="C20" t="n">
         <v>1411.015066994994</v>
@@ -5735,67 +5735,67 @@
         <v>1148.105715949997</v>
       </c>
       <c r="E20" t="n">
-        <v>904.0850290827673</v>
+        <v>857.6738109135058</v>
       </c>
       <c r="F20" t="n">
-        <v>588.4554718549131</v>
+        <v>542.0442536856517</v>
       </c>
       <c r="G20" t="n">
-        <v>268.7393692616629</v>
+        <v>222.3281510924017</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3310.671500698019</v>
+        <v>3310.671500698018</v>
       </c>
       <c r="T20" t="n">
         <v>3200.050100643994</v>
       </c>
       <c r="U20" t="n">
-        <v>3041.875971479584</v>
+        <v>3041.875971479583</v>
       </c>
       <c r="V20" t="n">
-        <v>2806.169431697767</v>
+        <v>2806.169431697766</v>
       </c>
       <c r="W20" t="n">
-        <v>2548.757123989406</v>
+        <v>2548.757123989405</v>
       </c>
       <c r="X20" t="n">
-        <v>2270.64771329008</v>
+        <v>2270.647713290079</v>
       </c>
       <c r="Y20" t="n">
-        <v>1975.864728876021</v>
+        <v>1975.86472887602</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>424.1192475095337</v>
+        <v>424.1192475095335</v>
       </c>
       <c r="C22" t="n">
-        <v>350.5394121433802</v>
+        <v>350.53941214338</v>
       </c>
       <c r="D22" t="n">
-        <v>295.7791202927979</v>
+        <v>295.7791202927977</v>
       </c>
       <c r="E22" t="n">
-        <v>243.2223742721582</v>
+        <v>243.222374272158</v>
       </c>
       <c r="F22" t="n">
-        <v>191.6887743360012</v>
+        <v>191.688774336001</v>
       </c>
       <c r="G22" t="n">
-        <v>119.3422852724735</v>
+        <v>119.3422852724734</v>
       </c>
       <c r="H22" t="n">
-        <v>68.48144605208471</v>
+        <v>68.48144605208464</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>135.0514132879367</v>
+        <v>171.7936262148974</v>
       </c>
       <c r="K22" t="n">
-        <v>326.8210238008814</v>
+        <v>363.5632367278422</v>
       </c>
       <c r="L22" t="n">
-        <v>575.9896239685131</v>
+        <v>612.7318368954739</v>
       </c>
       <c r="M22" t="n">
-        <v>836.8808615129853</v>
+        <v>873.6230744399461</v>
       </c>
       <c r="N22" t="n">
-        <v>1101.648454788107</v>
+        <v>1138.390667715068</v>
       </c>
       <c r="O22" t="n">
-        <v>1239.566804006297</v>
+        <v>1327.609635149643</v>
       </c>
       <c r="P22" t="n">
-        <v>1431.97656300433</v>
+        <v>1520.019394147676</v>
       </c>
       <c r="Q22" t="n">
-        <v>1538.356086608145</v>
+        <v>1532.940161506217</v>
       </c>
       <c r="R22" t="n">
         <v>1538.356086608145</v>
       </c>
       <c r="S22" t="n">
-        <v>1442.026549996725</v>
+        <v>1442.026549996724</v>
       </c>
       <c r="T22" t="n">
-        <v>1315.616282128005</v>
+        <v>1315.616282128004</v>
       </c>
       <c r="U22" t="n">
-        <v>1121.869762815402</v>
+        <v>1121.869762815401</v>
       </c>
       <c r="V22" t="n">
-        <v>962.541622171268</v>
+        <v>962.5416221712676</v>
       </c>
       <c r="W22" t="n">
-        <v>768.4807996960608</v>
+        <v>768.4807996960603</v>
       </c>
       <c r="X22" t="n">
-        <v>635.8475963597969</v>
+        <v>635.8475963597964</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.4113647780201</v>
+        <v>510.4113647780197</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1731.032454542913</v>
+        <v>1684.621236373653</v>
       </c>
       <c r="C23" t="n">
-        <v>1457.426285164255</v>
+        <v>1411.015066994995</v>
       </c>
       <c r="D23" t="n">
-        <v>1194.516934119258</v>
+        <v>1148.105715949998</v>
       </c>
       <c r="E23" t="n">
-        <v>904.0850290827667</v>
+        <v>857.6738109135067</v>
       </c>
       <c r="F23" t="n">
-        <v>588.4554718549125</v>
+        <v>542.0442536856526</v>
       </c>
       <c r="G23" t="n">
-        <v>268.7393692616628</v>
+        <v>222.3281510924024</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -5999,22 +5999,22 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3310.671500698019</v>
+        <v>3310.671500698018</v>
       </c>
       <c r="T23" t="n">
         <v>3200.050100643994</v>
@@ -6029,10 +6029,10 @@
         <v>2548.757123989406</v>
       </c>
       <c r="X23" t="n">
-        <v>2317.05893145934</v>
+        <v>2270.64771329008</v>
       </c>
       <c r="Y23" t="n">
-        <v>2022.275947045282</v>
+        <v>1975.864728876021</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6078,37 +6078,37 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
         <v>1109.759191501176</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>424.1192475095337</v>
+        <v>424.1192475095335</v>
       </c>
       <c r="C25" t="n">
-        <v>350.5394121433802</v>
+        <v>350.53941214338</v>
       </c>
       <c r="D25" t="n">
-        <v>295.7791202927979</v>
+        <v>295.7791202927977</v>
       </c>
       <c r="E25" t="n">
-        <v>243.2223742721582</v>
+        <v>243.222374272158</v>
       </c>
       <c r="F25" t="n">
-        <v>191.6887743360012</v>
+        <v>191.688774336001</v>
       </c>
       <c r="G25" t="n">
-        <v>119.3422852724735</v>
+        <v>119.3422852724734</v>
       </c>
       <c r="H25" t="n">
-        <v>68.48144605208471</v>
+        <v>68.48144605208464</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>171.7936262148973</v>
+        <v>171.7936262148974</v>
       </c>
       <c r="K25" t="n">
-        <v>363.5632367278421</v>
+        <v>363.5632367278422</v>
       </c>
       <c r="L25" t="n">
-        <v>612.7318368954737</v>
+        <v>612.7318368954739</v>
       </c>
       <c r="M25" t="n">
-        <v>873.623074439946</v>
+        <v>873.6230744399461</v>
       </c>
       <c r="N25" t="n">
-        <v>1096.23252968618</v>
+        <v>1138.390667715068</v>
       </c>
       <c r="O25" t="n">
-        <v>1327.609635149644</v>
+        <v>1276.309016933258</v>
       </c>
       <c r="P25" t="n">
-        <v>1520.019394147677</v>
+        <v>1431.97656300433</v>
       </c>
       <c r="Q25" t="n">
-        <v>1532.940161506218</v>
+        <v>1538.356086608145</v>
       </c>
       <c r="R25" t="n">
         <v>1538.356086608145</v>
       </c>
       <c r="S25" t="n">
-        <v>1442.026549996725</v>
+        <v>1442.026549996724</v>
       </c>
       <c r="T25" t="n">
-        <v>1315.616282128005</v>
+        <v>1315.616282128004</v>
       </c>
       <c r="U25" t="n">
-        <v>1121.869762815402</v>
+        <v>1121.869762815401</v>
       </c>
       <c r="V25" t="n">
-        <v>962.541622171268</v>
+        <v>962.5416221712676</v>
       </c>
       <c r="W25" t="n">
-        <v>768.4807996960608</v>
+        <v>768.4807996960603</v>
       </c>
       <c r="X25" t="n">
-        <v>635.8475963597969</v>
+        <v>635.8475963597964</v>
       </c>
       <c r="Y25" t="n">
-        <v>510.4113647780201</v>
+        <v>510.4113647780197</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1898.590932408174</v>
+        <v>1766.053366453801</v>
       </c>
       <c r="C26" t="n">
-        <v>1577.535130081443</v>
+        <v>1444.997564127069</v>
       </c>
       <c r="D26" t="n">
-        <v>1267.176146088372</v>
+        <v>1134.638580133998</v>
       </c>
       <c r="E26" t="n">
-        <v>929.2946081038085</v>
+        <v>796.7570421494343</v>
       </c>
       <c r="F26" t="n">
-        <v>683.3547377510596</v>
+        <v>433.6778519735068</v>
       </c>
       <c r="G26" t="n">
-        <v>316.1890022097362</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218417</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3263.221867749945</v>
       </c>
       <c r="T26" t="n">
-        <v>3167.534788607073</v>
+        <v>3105.150834747847</v>
       </c>
       <c r="U26" t="n">
-        <v>3167.534788607073</v>
+        <v>2899.527072635363</v>
       </c>
       <c r="V26" t="n">
-        <v>2884.378615877182</v>
+        <v>2616.370899905473</v>
       </c>
       <c r="W26" t="n">
-        <v>2579.516675220748</v>
+        <v>2311.508959249039</v>
       </c>
       <c r="X26" t="n">
-        <v>2579.516675220748</v>
+        <v>1985.949915601639</v>
       </c>
       <c r="Y26" t="n">
-        <v>2237.284057858616</v>
+        <v>1766.053366453801</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6330,25 +6330,25 @@
         <v>2564.909189125855</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6358,67 +6358,67 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>756.2666781460472</v>
+        <v>756.2666781460468</v>
       </c>
       <c r="C28" t="n">
-        <v>635.2372098318203</v>
+        <v>635.23720983182</v>
       </c>
       <c r="D28" t="n">
-        <v>533.0272850331646</v>
+        <v>533.0272850331644</v>
       </c>
       <c r="E28" t="n">
-        <v>433.0209060644515</v>
+        <v>433.0209060644514</v>
       </c>
       <c r="F28" t="n">
-        <v>334.0376731802212</v>
+        <v>334.0376731802211</v>
       </c>
       <c r="G28" t="n">
-        <v>214.2415511686202</v>
+        <v>214.2415511686201</v>
       </c>
       <c r="H28" t="n">
         <v>115.931079000158</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
         <v>158.5881198719867</v>
       </c>
       <c r="K28" t="n">
-        <v>409.5286738137308</v>
+        <v>398.6314812403334</v>
       </c>
       <c r="L28" t="n">
-        <v>773.0418432550948</v>
+        <v>762.1446506816973</v>
       </c>
       <c r="M28" t="n">
-        <v>1164.152259847512</v>
+        <v>1153.255067274114</v>
       </c>
       <c r="N28" t="n">
-        <v>1552.514007546244</v>
+        <v>1541.616814972846</v>
       </c>
       <c r="O28" t="n">
-        <v>1898.796977459525</v>
+        <v>1887.899784886127</v>
       </c>
       <c r="P28" t="n">
-        <v>2167.460656312655</v>
+        <v>2167.460656312654</v>
       </c>
       <c r="Q28" t="n">
-        <v>2292.024323458038</v>
+        <v>2292.024323458037</v>
       </c>
       <c r="R28" t="n">
-        <v>2250.100580829246</v>
+        <v>2250.100580829245</v>
       </c>
       <c r="S28" t="n">
-        <v>2106.321411269752</v>
+        <v>2106.321411269751</v>
       </c>
       <c r="T28" t="n">
         <v>1932.461510452958</v>
       </c>
       <c r="U28" t="n">
-        <v>1691.265358192282</v>
+        <v>1691.265358192281</v>
       </c>
       <c r="V28" t="n">
-        <v>1484.487584600075</v>
+        <v>1484.487584600074</v>
       </c>
       <c r="W28" t="n">
         <v>1242.977129176794</v>
@@ -6427,7 +6427,7 @@
         <v>1062.894292892457</v>
       </c>
       <c r="Y28" t="n">
-        <v>890.0084283626069</v>
+        <v>890.0084283626065</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1767.957146447598</v>
+        <v>1305.024172789066</v>
       </c>
       <c r="C29" t="n">
-        <v>1446.901344120867</v>
+        <v>983.9683704623344</v>
       </c>
       <c r="D29" t="n">
-        <v>1136.542360127796</v>
+        <v>673.6093864692641</v>
       </c>
       <c r="E29" t="n">
-        <v>1046.433927926987</v>
+        <v>673.6093864692641</v>
       </c>
       <c r="F29" t="n">
-        <v>683.3547377510595</v>
+        <v>310.5301962933368</v>
       </c>
       <c r="G29" t="n">
-        <v>316.1890022097361</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6473,40 +6473,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3263.221867749946</v>
+        <v>3263.221867749945</v>
       </c>
       <c r="T29" t="n">
-        <v>3263.221867749946</v>
+        <v>3105.150834747847</v>
       </c>
       <c r="U29" t="n">
-        <v>3057.598105637462</v>
+        <v>2899.527072635363</v>
       </c>
       <c r="V29" t="n">
-        <v>2774.441932907572</v>
+        <v>2616.370899905472</v>
       </c>
       <c r="W29" t="n">
-        <v>2774.441932907572</v>
+        <v>2311.508959249039</v>
       </c>
       <c r="X29" t="n">
-        <v>2448.882889260172</v>
+        <v>1985.949915601639</v>
       </c>
       <c r="Y29" t="n">
-        <v>2106.65027189804</v>
+        <v>1643.717298239507</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>176.0213023927768</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6595,55 +6595,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>756.2666781460467</v>
+        <v>756.2666781460466</v>
       </c>
       <c r="C31" t="n">
-        <v>635.2372098318199</v>
+        <v>635.2372098318198</v>
       </c>
       <c r="D31" t="n">
-        <v>533.0272850331643</v>
+        <v>533.0272850331642</v>
       </c>
       <c r="E31" t="n">
-        <v>433.0209060644513</v>
+        <v>433.0209060644511</v>
       </c>
       <c r="F31" t="n">
-        <v>334.0376731802211</v>
+        <v>334.0376731802209</v>
       </c>
       <c r="G31" t="n">
-        <v>214.2415511686201</v>
+        <v>214.24155116862</v>
       </c>
       <c r="H31" t="n">
-        <v>115.931079000158</v>
+        <v>115.9310790001579</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J31" t="n">
-        <v>158.5881198719868</v>
+        <v>147.6909272985876</v>
       </c>
       <c r="K31" t="n">
-        <v>409.528673813731</v>
+        <v>398.6314812403318</v>
       </c>
       <c r="L31" t="n">
-        <v>762.1446506816962</v>
+        <v>762.1446506816958</v>
       </c>
       <c r="M31" t="n">
         <v>1153.255067274113</v>
       </c>
       <c r="N31" t="n">
-        <v>1541.616814972846</v>
+        <v>1541.616814972845</v>
       </c>
       <c r="O31" t="n">
-        <v>1887.899784886127</v>
+        <v>1887.899784886126</v>
       </c>
       <c r="P31" t="n">
         <v>2167.460656312654</v>
       </c>
       <c r="Q31" t="n">
-        <v>2292.024323458037</v>
+        <v>2292.024323458036</v>
       </c>
       <c r="R31" t="n">
-        <v>2250.100580829245</v>
+        <v>2250.100580829244</v>
       </c>
       <c r="S31" t="n">
         <v>2106.321411269751</v>
@@ -6658,13 +6658,13 @@
         <v>1484.487584600074</v>
       </c>
       <c r="W31" t="n">
-        <v>1242.977129176794</v>
+        <v>1242.977129176793</v>
       </c>
       <c r="X31" t="n">
         <v>1062.894292892456</v>
       </c>
       <c r="Y31" t="n">
-        <v>890.0084283626063</v>
+        <v>890.0084283626062</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C32" t="n">
         <v>1440.850850103805</v>
@@ -6683,25 +6683,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E32" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464976</v>
       </c>
       <c r="F32" t="n">
-        <v>581.8252978307333</v>
+        <v>581.8252978307336</v>
       </c>
       <c r="G32" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6710,22 +6710,22 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T32" t="n">
         <v>3206.680274668174</v>
@@ -6737,10 +6737,10 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W32" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X32" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y32" t="n">
         <v>1999.070337960652</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6819,10 +6819,10 @@
         <v>1525.370990471662</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>402.2593958170921</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C34" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D34" t="n">
-        <v>280.5494426245364</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E34" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F34" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G34" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I34" t="n">
-        <v>67.83109325226764</v>
+        <v>67.83109325226771</v>
       </c>
       <c r="J34" t="n">
-        <v>176.361719815531</v>
+        <v>176.3617198155312</v>
       </c>
       <c r="K34" t="n">
-        <v>371.3804471090252</v>
+        <v>274.6725740832015</v>
       </c>
       <c r="L34" t="n">
-        <v>623.7981640572063</v>
+        <v>527.0902910313828</v>
       </c>
       <c r="M34" t="n">
-        <v>791.2306453564041</v>
+        <v>694.5227723305806</v>
       </c>
       <c r="N34" t="n">
-        <v>1059.247355412076</v>
+        <v>962.5394823862521</v>
       </c>
       <c r="O34" t="n">
-        <v>1197.165704630265</v>
+        <v>1197.165704630266</v>
       </c>
       <c r="P34" t="n">
         <v>1392.824580408848</v>
       </c>
       <c r="Q34" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R34" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S34" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T34" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363021</v>
       </c>
       <c r="U34" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V34" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304652</v>
       </c>
       <c r="W34" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673482</v>
       </c>
       <c r="X34" t="n">
-        <v>607.3575706431751</v>
+        <v>607.3575706431743</v>
       </c>
       <c r="Y34" t="n">
-        <v>485.2364260734884</v>
+        <v>485.2364260734877</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464971</v>
+        <v>894.1397680464967</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307327</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6947,40 +6947,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710107</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7041,25 +7041,25 @@
         <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245363</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226766</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J37" t="n">
-        <v>155.2189959588245</v>
+        <v>78.3348699696228</v>
       </c>
       <c r="K37" t="n">
-        <v>350.2377232523188</v>
+        <v>253.529850226493</v>
       </c>
       <c r="L37" t="n">
-        <v>505.947567174676</v>
+        <v>409.2396941488502</v>
       </c>
       <c r="M37" t="n">
-        <v>673.3800484738738</v>
+        <v>673.380048473872</v>
       </c>
       <c r="N37" t="n">
-        <v>941.3967585295452</v>
+        <v>941.3967585295435</v>
       </c>
       <c r="O37" t="n">
-        <v>1176.022980773559</v>
+        <v>1176.022980773557</v>
       </c>
       <c r="P37" t="n">
-        <v>1371.681856552141</v>
+        <v>1371.68185655214</v>
       </c>
       <c r="Q37" t="n">
-        <v>1481.310496936506</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363021</v>
       </c>
       <c r="U37" t="n">
         <v>1083.434476062509</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304652</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673482</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431743</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734877</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464967</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307327</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7272,31 +7272,31 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245363</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226766</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J40" t="n">
-        <v>176.361719815531</v>
+        <v>155.2189959588226</v>
       </c>
       <c r="K40" t="n">
-        <v>371.3804471090253</v>
+        <v>350.237723252317</v>
       </c>
       <c r="L40" t="n">
-        <v>611.3204820829772</v>
+        <v>602.6554402004982</v>
       </c>
       <c r="M40" t="n">
-        <v>875.4608364079988</v>
+        <v>770.087921499696</v>
       </c>
       <c r="N40" t="n">
-        <v>1143.47754646367</v>
+        <v>941.3967585295435</v>
       </c>
       <c r="O40" t="n">
-        <v>1281.39589568186</v>
+        <v>1176.022980773557</v>
       </c>
       <c r="P40" t="n">
-        <v>1380.346898434618</v>
+        <v>1371.68185655214</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363021</v>
       </c>
       <c r="U40" t="n">
         <v>1083.434476062509</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304652</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673482</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431743</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734877</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464964</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307324</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495727</v>
@@ -7409,10 +7409,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7424,10 +7424,10 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7442,19 +7442,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="42">
@@ -7488,10 +7488,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
         <v>765.1517452158134</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245363</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226766</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>79.65384678970709</v>
+        <v>175.0427429954469</v>
       </c>
       <c r="K43" t="n">
-        <v>274.6725740832014</v>
+        <v>370.0614702889412</v>
       </c>
       <c r="L43" t="n">
-        <v>527.0902910313825</v>
+        <v>525.7713142112984</v>
       </c>
       <c r="M43" t="n">
-        <v>770.0879214996977</v>
+        <v>789.9116685363202</v>
       </c>
       <c r="N43" t="n">
-        <v>941.3967585295452</v>
+        <v>961.2205055661677</v>
       </c>
       <c r="O43" t="n">
-        <v>1176.022980773559</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P43" t="n">
-        <v>1371.681856552141</v>
+        <v>1371.68185655214</v>
       </c>
       <c r="Q43" t="n">
-        <v>1481.310496936506</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363021</v>
       </c>
       <c r="U43" t="n">
         <v>1083.434476062509</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304652</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673482</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431743</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734878</v>
       </c>
     </row>
     <row r="44">
@@ -7631,52 +7631,52 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810566</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515854</v>
@@ -7685,13 +7685,13 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7746,31 +7746,31 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245363</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226771</v>
       </c>
       <c r="J46" t="n">
-        <v>163.8840378413016</v>
+        <v>79.65384678970713</v>
       </c>
       <c r="K46" t="n">
-        <v>358.9027651347959</v>
+        <v>274.6725740832015</v>
       </c>
       <c r="L46" t="n">
-        <v>611.320482082977</v>
+        <v>527.0902910313828</v>
       </c>
       <c r="M46" t="n">
-        <v>778.7529633821748</v>
+        <v>694.5227723305806</v>
       </c>
       <c r="N46" t="n">
-        <v>1046.769673437846</v>
+        <v>950.0618004120207</v>
       </c>
       <c r="O46" t="n">
-        <v>1281.39589568186</v>
+        <v>1184.688022656034</v>
       </c>
       <c r="P46" t="n">
-        <v>1380.346898434618</v>
+        <v>1380.346898434617</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363021</v>
       </c>
       <c r="U46" t="n">
         <v>1083.434476062509</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304652</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673482</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431743</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734877</v>
       </c>
     </row>
   </sheetData>
@@ -10033,7 +10033,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>95.73650111899843</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
@@ -10048,7 +10048,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>123.999298088387</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10267,13 +10267,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>22.62897609706758</v>
       </c>
       <c r="K31" t="n">
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>151.4674363158992</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
         <v>178.5096609094456</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.25815758737082</v>
+        <v>15.25815758737081</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>23.23161743843616</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
-        <v>329.423790211174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>42.32535640796578</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>340.0136403615001</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>45.94710598756643</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>45.94710598756818</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>45.94710598756792</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>45.9471059875685</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>45.94710598756782</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24269,7 +24269,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>45.94710598756728</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>335.3061941959373</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24452,13 +24452,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>115.9679266249467</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.1801169197772</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,13 +24491,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>61.76011432063261</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>203.5675244913587</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24506,10 +24506,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>322.3034532109258</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>121.1127075321505</v>
       </c>
     </row>
     <row r="27">
@@ -24686,16 +24686,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>245.295374725917</v>
+        <v>334.5027226047184</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>121.9161791233683</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.1801169197771</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>156.4903226720769</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24740,7 +24740,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>301.8133212498697</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>715211.3326992143</v>
+        <v>715211.3326992142</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312484</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>716866.7963774084</v>
+        <v>716866.7963774089</v>
       </c>
       <c r="C2" t="n">
-        <v>716866.7963774087</v>
+        <v>716866.7963774083</v>
       </c>
       <c r="D2" t="n">
-        <v>716869.901369377</v>
+        <v>716869.9013693769</v>
       </c>
       <c r="E2" t="n">
-        <v>668964.6336536127</v>
+        <v>668964.6336536128</v>
       </c>
       <c r="F2" t="n">
-        <v>668964.6336536126</v>
+        <v>668964.6336536122</v>
       </c>
       <c r="G2" t="n">
         <v>715211.3326992147</v>
       </c>
       <c r="H2" t="n">
+        <v>715211.3326992147</v>
+      </c>
+      <c r="I2" t="n">
         <v>715211.3326992146</v>
       </c>
-      <c r="I2" t="n">
-        <v>715211.3326992149</v>
-      </c>
       <c r="J2" t="n">
+        <v>669405.8769824238</v>
+      </c>
+      <c r="K2" t="n">
         <v>669405.8769824239</v>
       </c>
-      <c r="K2" t="n">
-        <v>669405.8769824238</v>
-      </c>
       <c r="L2" t="n">
-        <v>718411.5486312475</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="M2" t="n">
         <v>718411.5486312476</v>
       </c>
       <c r="N2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="O2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="P2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312475</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9496.994971249054</v>
+        <v>9496.994971249893</v>
       </c>
       <c r="E3" t="n">
-        <v>1152439.021265978</v>
+        <v>1152439.021265976</v>
       </c>
       <c r="F3" t="n">
-        <v>1.342516497970791e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37942.11797403447</v>
+        <v>37942.11797403483</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>78147.77618248401</v>
+        <v>78147.77618248406</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.568292073</v>
+        <v>207188.5682920728</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>463750.8212586376</v>
+        <v>463750.8212586372</v>
       </c>
       <c r="E4" t="n">
+        <v>62485.16516868478</v>
+      </c>
+      <c r="F4" t="n">
         <v>62485.16516868472</v>
       </c>
-      <c r="F4" t="n">
-        <v>62485.16516868465</v>
-      </c>
       <c r="G4" t="n">
-        <v>91701.70120662282</v>
+        <v>91701.70120662285</v>
       </c>
       <c r="H4" t="n">
         <v>91701.70120662288</v>
       </c>
       <c r="I4" t="n">
-        <v>91701.70120662288</v>
+        <v>91701.70120662285</v>
       </c>
       <c r="J4" t="n">
-        <v>62762.98823905142</v>
+        <v>62762.98823905148</v>
       </c>
       <c r="K4" t="n">
-        <v>62762.98823905148</v>
+        <v>62762.98823905149</v>
       </c>
       <c r="L4" t="n">
-        <v>93774.13782657708</v>
+        <v>93774.13782657712</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657709</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.13782657709</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.13782657705</v>
+        <v>93774.13782657709</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.13782657712</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33869.34580328349</v>
+        <v>33869.34580328351</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178173</v>
       </c>
       <c r="G5" t="n">
-        <v>82242.68821673066</v>
+        <v>82242.68821673063</v>
       </c>
       <c r="H5" t="n">
-        <v>82242.68821673065</v>
+        <v>82242.68821673063</v>
       </c>
       <c r="I5" t="n">
-        <v>82242.68821673065</v>
+        <v>82242.68821673063</v>
       </c>
       <c r="J5" t="n">
-        <v>78293.53545634219</v>
+        <v>78293.53545634217</v>
       </c>
       <c r="K5" t="n">
         <v>78293.53545634219</v>
       </c>
       <c r="L5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>215623.2364456772</v>
+        <v>215618.8228678096</v>
       </c>
       <c r="C6" t="n">
-        <v>215623.2364456774</v>
+        <v>215618.822867809</v>
       </c>
       <c r="D6" t="n">
-        <v>209752.7393362069</v>
+        <v>209748.3346297439</v>
       </c>
       <c r="E6" t="n">
-        <v>-624215.0461028313</v>
+        <v>-624356.3230027662</v>
       </c>
       <c r="F6" t="n">
-        <v>528223.975163146</v>
+        <v>528082.6982632097</v>
       </c>
       <c r="G6" t="n">
-        <v>503324.8253018268</v>
+        <v>503315.6818277348</v>
       </c>
       <c r="H6" t="n">
-        <v>541266.9432758611</v>
+        <v>541257.7998017698</v>
       </c>
       <c r="I6" t="n">
-        <v>541266.9432758614</v>
+        <v>541257.7998017695</v>
       </c>
       <c r="J6" t="n">
-        <v>528349.3532870304</v>
+        <v>528209.3370823193</v>
       </c>
       <c r="K6" t="n">
-        <v>528349.3532870302</v>
+        <v>528209.3370823193</v>
       </c>
       <c r="L6" t="n">
         <v>463971.0373159366</v>
       </c>
       <c r="M6" t="n">
-        <v>334930.2452063477</v>
+        <v>334930.2452063478</v>
       </c>
       <c r="N6" t="n">
+        <v>542118.8134984206</v>
+      </c>
+      <c r="O6" t="n">
         <v>542118.8134984209</v>
       </c>
-      <c r="O6" t="n">
-        <v>542118.8134984206</v>
-      </c>
       <c r="P6" t="n">
-        <v>542118.8134984209</v>
+        <v>542118.8134984204</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="H2" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="I2" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="J2" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="K2" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135289</v>
+        <v>11.08925703135387</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135289</v>
+        <v>11.08925703135387</v>
       </c>
       <c r="E3" t="n">
-        <v>1078.687443561945</v>
+        <v>1078.687443561944</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.42764746754331</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,40 +27868,40 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.0182479305517</v>
+        <v>339.0182479305516</v>
       </c>
       <c r="I8" t="n">
-        <v>208.7572219052753</v>
+        <v>208.7572219052752</v>
       </c>
       <c r="J8" t="n">
-        <v>177.2622388826067</v>
+        <v>177.2622388826064</v>
       </c>
       <c r="K8" t="n">
-        <v>214.419117058641</v>
+        <v>214.4191170586405</v>
       </c>
       <c r="L8" t="n">
-        <v>228.7313680193331</v>
+        <v>228.7313680193325</v>
       </c>
       <c r="M8" t="n">
-        <v>222.5183879862414</v>
+        <v>222.5183879862407</v>
       </c>
       <c r="N8" t="n">
-        <v>221.4585556357995</v>
+        <v>221.4585556357987</v>
       </c>
       <c r="O8" t="n">
-        <v>222.5869951176008</v>
+        <v>222.5869951176002</v>
       </c>
       <c r="P8" t="n">
-        <v>224.8223464178632</v>
+        <v>224.8223464178626</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.4915592000997</v>
+        <v>217.4915592000993</v>
       </c>
       <c r="R8" t="n">
-        <v>212.7851939267121</v>
+        <v>212.7851939267119</v>
       </c>
       <c r="S8" t="n">
-        <v>208.0042044823179</v>
+        <v>208.0042044823178</v>
       </c>
       <c r="T8" t="n">
         <v>222.9007009303434</v>
@@ -27947,40 +27947,40 @@
         <v>137.31966479903</v>
       </c>
       <c r="H9" t="n">
-        <v>112.005080614015</v>
+        <v>112.0050806140149</v>
       </c>
       <c r="I9" t="n">
-        <v>98.70114728588565</v>
+        <v>98.70114728588558</v>
       </c>
       <c r="J9" t="n">
-        <v>124.5841013297575</v>
+        <v>124.5841013297573</v>
       </c>
       <c r="K9" t="n">
-        <v>133.9898052373466</v>
+        <v>133.9898052373462</v>
       </c>
       <c r="L9" t="n">
-        <v>133.3753828993353</v>
+        <v>133.3753828993348</v>
       </c>
       <c r="M9" t="n">
-        <v>136.090388839931</v>
+        <v>136.0903888399305</v>
       </c>
       <c r="N9" t="n">
-        <v>125.1381096993503</v>
+        <v>125.1381096993498</v>
       </c>
       <c r="O9" t="n">
-        <v>136.921160235201</v>
+        <v>136.9211602352005</v>
       </c>
       <c r="P9" t="n">
-        <v>129.4196520121506</v>
+        <v>129.4196520121502</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.9370407214886</v>
+        <v>136.9370407214883</v>
       </c>
       <c r="R9" t="n">
-        <v>144.1985650721165</v>
+        <v>144.1985650721164</v>
       </c>
       <c r="S9" t="n">
-        <v>171.2401239007456</v>
+        <v>171.2401239007455</v>
       </c>
       <c r="T9" t="n">
         <v>200.0685869286724</v>
@@ -28029,37 +28029,37 @@
         <v>162.0493808127402</v>
       </c>
       <c r="I10" t="n">
-        <v>154.849109972181</v>
+        <v>154.8491099721809</v>
       </c>
       <c r="J10" t="n">
-        <v>125.5816320634481</v>
+        <v>125.5816320634479</v>
       </c>
       <c r="K10" t="n">
-        <v>126.6899679269175</v>
+        <v>126.6899679269173</v>
       </c>
       <c r="L10" t="n">
-        <v>131.9116646502425</v>
+        <v>131.9116646502422</v>
       </c>
       <c r="M10" t="n">
-        <v>135.7911600297097</v>
+        <v>135.7911600297094</v>
       </c>
       <c r="N10" t="n">
-        <v>124.6254548978764</v>
+        <v>124.6254548978762</v>
       </c>
       <c r="O10" t="n">
-        <v>135.6300504465399</v>
+        <v>135.6300504465397</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3094552697195</v>
+        <v>135.3094552697192</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.8305238177116</v>
+        <v>149.8305238177114</v>
       </c>
       <c r="R10" t="n">
         <v>176.3942526021355</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6681045004296</v>
+        <v>223.6681045004295</v>
       </c>
       <c r="T10" t="n">
         <v>227.8601476118104</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="12">
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="C17" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="D17" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="E17" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="F17" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="G17" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="H17" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="T17" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="U17" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="V17" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="W17" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="X17" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="C19" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="D19" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="E19" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="F19" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="G19" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="H19" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="I19" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="J19" t="n">
-        <v>94.40278408613584</v>
+        <v>51.8188062791768</v>
       </c>
       <c r="K19" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="L19" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="M19" t="n">
-        <v>94.40278408613584</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>51.81880627917747</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="P19" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="R19" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="S19" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="T19" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="U19" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="V19" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="W19" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="X19" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="C20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="D20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="E20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="F20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="G20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="H20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="T20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="U20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="V20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="W20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="X20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
     </row>
     <row r="21">
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="C22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="D22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="E22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="F22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="G22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="H22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="I22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="J22" t="n">
-        <v>57.28943769526649</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="K22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="L22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="M22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="N22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>51.81880627917732</v>
       </c>
       <c r="P22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.40278408613584</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="S22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="T22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="U22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="V22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="W22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="X22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="C23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="D23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="E23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="F23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="G23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="H23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29074,7 +29074,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="T23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="U23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="V23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="W23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="X23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
     </row>
     <row r="24">
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="C25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="D25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="E25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="F25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="G25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="H25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="I25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="J25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="K25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="L25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="M25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="N25" t="n">
-        <v>51.81880627917786</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="O25" t="n">
-        <v>94.40278408613584</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>94.40278408613584</v>
+        <v>57.289437695266</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="R25" t="n">
-        <v>94.40278408613584</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="T25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="U25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="V25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="W25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="X25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613588</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="C26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="D26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="E26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="F26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="G26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="H26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29317,31 +29317,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="T26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="U26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="V26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="W26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="X26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
     </row>
     <row r="27">
@@ -29369,7 +29369,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -29402,7 +29402,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="C28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="D28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="E28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="F28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="G28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="H28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="I28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="J28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="K28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="L28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="M28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="N28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="O28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="P28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="R28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="S28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="T28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="U28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="V28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="W28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="X28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754327</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="C29" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="D29" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="E29" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="F29" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="G29" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="H29" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29545,10 +29545,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="T29" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="U29" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="V29" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="W29" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="X29" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
     </row>
     <row r="30">
@@ -29606,7 +29606,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="C31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="D31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="E31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="F31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="G31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="H31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="I31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="J31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="K31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="L31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="M31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="N31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="O31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="P31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="R31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="S31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="T31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="U31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="V31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="W31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="X31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.4276474675433</v>
+        <v>47.42764746754332</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29779,13 +29779,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y32" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29891,7 +29891,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="J34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="K34" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="P34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Q34" t="n">
-        <v>76.32843350415952</v>
+        <v>76.32843350415722</v>
       </c>
       <c r="R34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="S34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30019,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="36">
@@ -30080,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810502</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
-        <v>76.32843350415901</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810502</v>
+        <v>77.66073332242408</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="39">
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.104893954106956e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810502</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810502</v>
+        <v>77.66073332242406</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="L40" t="n">
-        <v>85.08100106221679</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810502</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>76.32843350415899</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810502</v>
+        <v>77.66073332242411</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="45">
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="J46" t="n">
-        <v>86.41330088048355</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810502</v>
+        <v>85.08100106221485</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="R46" t="n">
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04457992776423269</v>
+        <v>0.04457992776423662</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4565541852154482</v>
+        <v>0.4565541852154885</v>
       </c>
       <c r="I8" t="n">
-        <v>1.718667665130582</v>
+        <v>1.718667665130734</v>
       </c>
       <c r="J8" t="n">
-        <v>3.783665644079548</v>
+        <v>3.783665644079881</v>
       </c>
       <c r="K8" t="n">
-        <v>5.670733986339519</v>
+        <v>5.670733986340019</v>
       </c>
       <c r="L8" t="n">
-        <v>7.035046950654157</v>
+        <v>7.035046950654777</v>
       </c>
       <c r="M8" t="n">
-        <v>7.827845241031329</v>
+        <v>7.82784524103202</v>
       </c>
       <c r="N8" t="n">
-        <v>7.954507960791456</v>
+        <v>7.954507960792158</v>
       </c>
       <c r="O8" t="n">
-        <v>7.511216304085867</v>
+        <v>7.511216304086529</v>
       </c>
       <c r="P8" t="n">
-        <v>6.410649337406371</v>
+        <v>6.410649337406936</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.814130674349786</v>
+        <v>4.814130674350211</v>
       </c>
       <c r="R8" t="n">
-        <v>2.800343887419984</v>
+        <v>2.800343887420231</v>
       </c>
       <c r="S8" t="n">
-        <v>1.015865103927453</v>
+        <v>1.015865103927543</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1951486337879287</v>
+        <v>0.1951486337879459</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003566394221138614</v>
+        <v>0.003566394221138929</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02385236418064584</v>
+        <v>0.02385236418064795</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2303636224815006</v>
+        <v>0.230363622481521</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8212327141143415</v>
+        <v>0.821232714114414</v>
       </c>
       <c r="J9" t="n">
-        <v>2.253525336909176</v>
+        <v>2.253525336909375</v>
       </c>
       <c r="K9" t="n">
-        <v>3.851633737012447</v>
+        <v>3.851633737012787</v>
       </c>
       <c r="L9" t="n">
-        <v>5.178996880538914</v>
+        <v>5.178996880539371</v>
       </c>
       <c r="M9" t="n">
-        <v>6.043645082087324</v>
+        <v>6.043645082087858</v>
       </c>
       <c r="N9" t="n">
-        <v>6.203602383982973</v>
+        <v>6.20360238398352</v>
       </c>
       <c r="O9" t="n">
-        <v>5.675084209243399</v>
+        <v>5.6750842092439</v>
       </c>
       <c r="P9" t="n">
-        <v>4.554755402179643</v>
+        <v>4.554755402180045</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.044733364532967</v>
+        <v>3.044733364533236</v>
       </c>
       <c r="R9" t="n">
-        <v>1.480938891847468</v>
+        <v>1.480938891847598</v>
       </c>
       <c r="S9" t="n">
-        <v>0.443047203092259</v>
+        <v>0.4430472030922982</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0961417661491821</v>
+        <v>0.09614176614919058</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001569234485568806</v>
+        <v>0.001569234485568944</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01999702087621013</v>
+        <v>0.01999702087621189</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1777916946993956</v>
+        <v>0.1777916946994113</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6013649550773011</v>
+        <v>0.6013649550773542</v>
       </c>
       <c r="J10" t="n">
-        <v>1.413789375948056</v>
+        <v>1.413789375948181</v>
       </c>
       <c r="K10" t="n">
-        <v>2.323290243617867</v>
+        <v>2.323290243618072</v>
       </c>
       <c r="L10" t="n">
-        <v>2.973011630995822</v>
+        <v>2.973011630996085</v>
       </c>
       <c r="M10" t="n">
-        <v>3.134623917895374</v>
+        <v>3.134623917895651</v>
       </c>
       <c r="N10" t="n">
-        <v>3.060089567356775</v>
+        <v>3.060089567357045</v>
       </c>
       <c r="O10" t="n">
-        <v>2.826488005302865</v>
+        <v>2.826488005303115</v>
       </c>
       <c r="P10" t="n">
-        <v>2.418548779428177</v>
+        <v>2.41854877942839</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.674477811734286</v>
+        <v>1.674477811734434</v>
       </c>
       <c r="R10" t="n">
-        <v>0.899138775033957</v>
+        <v>0.8991387750340363</v>
       </c>
       <c r="S10" t="n">
-        <v>0.34849353654268</v>
+        <v>0.3484935365427108</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08544181647107961</v>
+        <v>0.08544181647108716</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001090746593247826</v>
+        <v>0.001090746593247923</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34208,13 +34208,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233474</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>106.3449593764787</v>
+        <v>63.76098156951969</v>
       </c>
       <c r="K19" t="n">
         <v>193.7066772858029</v>
@@ -36048,22 +36048,22 @@
         <v>251.6854547147796</v>
       </c>
       <c r="M19" t="n">
-        <v>263.526502570174</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>224.8580356022558</v>
+        <v>267.4420134092142</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>233.7142479428932</v>
       </c>
       <c r="P19" t="n">
         <v>194.3532919172052</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.454064246278</v>
+        <v>107.4540642462781</v>
       </c>
       <c r="R19" t="n">
-        <v>5.470631416088509</v>
+        <v>5.470631416088551</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>69.23161298560935</v>
+        <v>106.3449593764787</v>
       </c>
       <c r="K22" t="n">
-        <v>193.7066772858028</v>
+        <v>193.7066772858029</v>
       </c>
       <c r="L22" t="n">
         <v>251.6854547147795</v>
@@ -36288,19 +36288,19 @@
         <v>263.526502570174</v>
       </c>
       <c r="N22" t="n">
-        <v>267.4420134092141</v>
+        <v>267.4420134092142</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>191.1302701359346</v>
       </c>
       <c r="P22" t="n">
-        <v>194.3532919172051</v>
+        <v>194.3532919172052</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.454064246278</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.470631416088537</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
@@ -36516,7 +36516,7 @@
         <v>106.3449593764787</v>
       </c>
       <c r="K25" t="n">
-        <v>193.7066772858028</v>
+        <v>193.7066772858029</v>
       </c>
       <c r="L25" t="n">
         <v>251.6854547147795</v>
@@ -36525,19 +36525,19 @@
         <v>263.526502570174</v>
       </c>
       <c r="N25" t="n">
-        <v>224.8580356022561</v>
+        <v>267.4420134092142</v>
       </c>
       <c r="O25" t="n">
-        <v>233.7142479428931</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>194.3532919172051</v>
+        <v>157.2399455263353</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.05128016014217</v>
+        <v>107.4540642462781</v>
       </c>
       <c r="R25" t="n">
-        <v>5.470631416088494</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222472</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.00606408060943</v>
+        <v>93.00606408060946</v>
       </c>
       <c r="K28" t="n">
-        <v>253.4753070118628</v>
+        <v>242.4680417862087</v>
       </c>
       <c r="L28" t="n">
         <v>367.1850196377413</v>
@@ -36768,7 +36768,7 @@
         <v>349.780777690183</v>
       </c>
       <c r="P28" t="n">
-        <v>271.3774533869995</v>
+        <v>282.3847186126536</v>
       </c>
       <c r="Q28" t="n">
         <v>125.8218860054369</v>
@@ -36841,10 +36841,10 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.00606408060949</v>
+        <v>81.99879885495376</v>
       </c>
       <c r="K31" t="n">
         <v>253.4753070118628</v>
       </c>
       <c r="L31" t="n">
-        <v>356.1777544120861</v>
+        <v>367.1850196377414</v>
       </c>
       <c r="M31" t="n">
         <v>395.0610268610271</v>
       </c>
       <c r="N31" t="n">
-        <v>392.2845936350833</v>
+        <v>392.2845936350834</v>
       </c>
       <c r="O31" t="n">
-        <v>349.780777690183</v>
+        <v>349.7807776901831</v>
       </c>
       <c r="P31" t="n">
         <v>282.3847186126537</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.8218860054369</v>
+        <v>125.821886005437</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,13 +37075,13 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302267</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
@@ -37221,34 +37221,34 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.332299818266883</v>
+        <v>1.332299818266982</v>
       </c>
       <c r="J34" t="n">
-        <v>109.6268955184479</v>
+        <v>109.626895518448</v>
       </c>
       <c r="K34" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L34" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567488</v>
       </c>
       <c r="M34" t="n">
         <v>169.1237184840381</v>
       </c>
       <c r="N34" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511834</v>
       </c>
       <c r="O34" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848624</v>
       </c>
       <c r="P34" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q34" t="n">
-        <v>89.37971366430169</v>
+        <v>89.37971366429939</v>
       </c>
       <c r="R34" t="n">
-        <v>8.752567558057649</v>
+        <v>8.752567558057748</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129106</v>
       </c>
       <c r="O35" t="n">
         <v>508.053000888219</v>
@@ -37458,34 +37458,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266911</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>88.27060879450187</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K37" t="n">
-        <v>196.988613427772</v>
+        <v>176.9646265220911</v>
       </c>
       <c r="L37" t="n">
         <v>157.2826706286436</v>
       </c>
       <c r="M37" t="n">
-        <v>169.1237184840381</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511833</v>
+        <v>270.7239495511834</v>
       </c>
       <c r="O37" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848624</v>
       </c>
       <c r="P37" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882473</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057677</v>
+        <v>8.752567558057748</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219371</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037194</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37695,34 +37695,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266911</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184479</v>
+        <v>89.60290861276692</v>
       </c>
       <c r="K40" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L40" t="n">
-        <v>242.3636716908604</v>
+        <v>254.9673908567488</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O40" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848624</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882473</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>8.752567558057748</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037194</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013291</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266911</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034286</v>
+        <v>109.626895518448</v>
       </c>
       <c r="K43" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567487</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M43" t="n">
-        <v>245.4521519881971</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N43" t="n">
         <v>173.0392293230782</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848624</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591743</v>
+        <v>177.6112411534934</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882473</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057677</v>
+        <v>8.752567558057748</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38169,31 +38169,31 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.332299818266982</v>
       </c>
       <c r="J46" t="n">
-        <v>98.35547617082641</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K46" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567488</v>
       </c>
       <c r="M46" t="n">
         <v>169.1237184840381</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511833</v>
+        <v>258.1202303852931</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848624</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882473</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
